--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/143.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/143.xlsx
@@ -479,13 +479,13 @@
         <v>-13.82418473858436</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.480715262857974</v>
+        <v>-10.00284939248885</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.037155127062706</v>
+        <v>-3.09764156619148</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.208516736716852</v>
+        <v>-6.849751545298912</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.76742528999798</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.765682326510984</v>
+        <v>-10.29886635974028</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.026550361760907</v>
+        <v>-3.029365206871879</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.173560288129444</v>
+        <v>-6.822650478416539</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.68179174145396</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.58960712894649</v>
+        <v>-11.12280425447863</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.856612270875303</v>
+        <v>-2.824326652067606</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.060180945520096</v>
+        <v>-6.697763001609314</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.54658899545751</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.32217384215243</v>
+        <v>-11.84820947803014</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.80038083017009</v>
+        <v>-2.805185705313003</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.293289397617029</v>
+        <v>-6.946529847904952</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.30538354812074</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.15578694869081</v>
+        <v>-12.71364997277676</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.624629756822759</v>
+        <v>-2.594281798835638</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.818902896449926</v>
+        <v>-6.450122093358066</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.93485028404318</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.84308047867006</v>
+        <v>-13.39219784445774</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.569183854288049</v>
+        <v>-2.528846469232691</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.917749782904958</v>
+        <v>-6.534305600630364</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.41290771824234</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.39208001373216</v>
+        <v>-13.97318187536217</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.462350663099564</v>
+        <v>-2.439452225429385</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.424785304005447</v>
+        <v>-6.010600394658479</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.74447565861499</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.39484567298565</v>
+        <v>-14.98245440912799</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.256565847033314</v>
+        <v>-2.269121365458529</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.250042337976929</v>
+        <v>-5.79685545846446</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.96009408143035</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.14592490240979</v>
+        <v>-15.72637214889771</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.233313917186408</v>
+        <v>-2.234505316745005</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.874240877208024</v>
+        <v>-5.425557749873109</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.10260879998444</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.8349335240613</v>
+        <v>-16.44026923825135</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.030422500048179</v>
+        <v>-2.022213626166417</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.642402378486739</v>
+        <v>-5.190145052476032</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.250100467806041</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.48623631352865</v>
+        <v>-17.09237065819204</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.105755610599471</v>
+        <v>-2.167983326006195</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.111561867466113</v>
+        <v>-4.672279013571558</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.457070766582817</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.46835541120073</v>
+        <v>-18.06362314450549</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.902576162798724</v>
+        <v>-1.946815054100917</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.459237878377112</v>
+        <v>-3.987617036463493</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.807870482864216</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.06278523712362</v>
+        <v>-18.65302552613716</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.637011891957153</v>
+        <v>-1.694146701558445</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.161479634847736</v>
+        <v>-3.735118883857964</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.330221479395604</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.97822523642279</v>
+        <v>-19.5873446261341</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.492315760950396</v>
+        <v>-1.560696858692731</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.568450685328912</v>
+        <v>-3.142705272572701</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.06423535170756</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.88973754486944</v>
+        <v>-20.51684575868528</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.32714326829918</v>
+        <v>-1.385836061938638</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.164474588844612</v>
+        <v>-2.695157992231137</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.994979543313992</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.68755629543855</v>
+        <v>-21.31238644855992</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.130339771982354</v>
+        <v>-1.224277044871738</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.660394744832475</v>
+        <v>-2.216503400337632</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.11227212320578</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.65029878490487</v>
+        <v>-22.27485399966657</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.035315837957106</v>
+        <v>-1.116475023272966</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.297816509933714</v>
+        <v>-1.83321314234326</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.375690103711626</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.49206839611365</v>
+        <v>-23.12230567030866</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9245549559161036</v>
+        <v>-1.033103238776854</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9360761824168226</v>
+        <v>-1.49272162233849</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.74623454122417</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.16549717738351</v>
+        <v>-23.83130623839949</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6943660873528759</v>
+        <v>-0.8286538376004601</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5985173382485993</v>
+        <v>-1.157702684921561</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.183460780988321</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.7824850411027</v>
+        <v>-24.43977101296871</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4121484072966287</v>
+        <v>-0.5705129024701472</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2458630689038659</v>
+        <v>-0.788656852418987</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.638034080218892</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.44386890375817</v>
+        <v>-25.12359508269491</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2331504428445499</v>
+        <v>-0.4410693042740016</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1095460117158141</v>
+        <v>-0.5603794600706512</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.08015215227868</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.88196354144801</v>
+        <v>-25.53140722391183</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1619021307798766</v>
+        <v>-0.383842848552817</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1023790943832058</v>
+        <v>-0.3772574202234287</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.463569132217735</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.30525078462385</v>
+        <v>-25.99272760684289</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1932189191772854</v>
+        <v>-0.4176733590958371</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1137301209469823</v>
+        <v>-0.331552191002963</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.775126128195019</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.56425581174172</v>
+        <v>-26.24106240714475</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1096453224603637</v>
+        <v>-0.1079356584662818</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1136122902214067</v>
+        <v>-0.3150297048167047</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.983250001092058</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.5660363649282</v>
+        <v>-26.26106744588691</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08919514542158763</v>
+        <v>-0.1541122105890496</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.04840495744495336</v>
+        <v>-0.4835800116010862</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.09010530410013</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.56240979704104</v>
+        <v>-26.29383747989975</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1092579810532961</v>
+        <v>-0.3447623245702646</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.03049468715747209</v>
+        <v>-0.4477594710261236</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.08453631225631</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.62771420361557</v>
+        <v>-26.33208009650043</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0680903532407252</v>
+        <v>-0.1238558987218207</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3221650098654454</v>
+        <v>-0.7541979113395639</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.978053628151628</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.70261526817308</v>
+        <v>-26.43994757961341</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01178035871846138</v>
+        <v>-0.1839495687653434</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.3944214292489316</v>
+        <v>-0.8088582757037703</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.777354119073376</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.4588234969573</v>
+        <v>-26.16747057287141</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.09344247922049102</v>
+        <v>-0.2757658885943682</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5540689701009393</v>
+        <v>-0.9392968889158871</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.498611740632418</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.01913159832077</v>
+        <v>-25.75743274017139</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1020572144903468</v>
+        <v>-0.2855065619086125</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.065742349761277</v>
+        <v>-1.463591248515649</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.160206752483443</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.07554633126577</v>
+        <v>-25.84166861665506</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0320526711956375</v>
+        <v>-0.1925119348238322</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.204154175404005</v>
+        <v>-1.642157166973951</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.778663801148038</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.66834952828241</v>
+        <v>-25.41267312944022</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.08446115947106694</v>
+        <v>-0.2377982103533627</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.698283869256431</v>
+        <v>-2.146577410859973</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.38261643280541</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.04924071150286</v>
+        <v>-24.76968395227737</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1562200713465675</v>
+        <v>-0.2710657518741886</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.745861297783263</v>
+        <v>-2.166320603545296</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.982311800914533</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.699244179635</v>
+        <v>-24.41069300835724</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3552623514493289</v>
+        <v>-0.4723337234600434</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.861636531812647</v>
+        <v>-2.318898300862771</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.60866450117878</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.92565928162593</v>
+        <v>-23.60462610699785</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.461938435003713</v>
+        <v>-0.5617279672633491</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.040686865476093</v>
+        <v>-2.483403086069059</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.263248519183497</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.13540788209935</v>
+        <v>-22.80799875598734</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4043715794086434</v>
+        <v>-0.516467876339502</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.190056948597345</v>
+        <v>-2.654192176639376</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.969606143913513</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.74853033312634</v>
+        <v>-22.44344358335948</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4639808342470222</v>
+        <v>-0.5696880873911185</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.456223465369636</v>
+        <v>-2.930204105148645</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.72349837539619</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.09945323514209</v>
+        <v>-21.78042318284879</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.382023018457817</v>
+        <v>-0.5231842276973075</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.629971416382183</v>
+        <v>-3.122621680013493</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.536901636267376</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.72276149777995</v>
+        <v>-21.38190657664949</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5994337994475201</v>
+        <v>-0.6905431349230918</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.835337278757498</v>
+        <v>-3.306751827179529</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.40391777760115</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.12382791967951</v>
+        <v>-20.73371975525847</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3684070235024219</v>
+        <v>-0.4971436373451144</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.730428656086747</v>
+        <v>-3.229049009813884</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.324583097065322</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.6018116207742</v>
+        <v>-20.24435565964043</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1267623899526839</v>
+        <v>-0.2501311596302686</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.801415122094586</v>
+        <v>-3.34893522693557</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.296076009597091</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.69307488053</v>
+        <v>-19.32269681649144</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1126227028836197</v>
+        <v>-0.2203199860596584</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.759231722338544</v>
+        <v>-3.340543060814023</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.311363270081518</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.3678882625472</v>
+        <v>-18.98507251080901</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.06580462792160729</v>
+        <v>-0.1685399283206317</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.976079534306053</v>
+        <v>-3.578495664962395</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.375289516304674</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.81809009701176</v>
+        <v>-18.40766267858037</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.09005157278448397</v>
+        <v>-0.1969502254871773</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.034523574191518</v>
+        <v>-3.649351207941816</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.476885695737997</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.37295180039307</v>
+        <v>-17.93787157571071</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.02332010520020621</v>
+        <v>-0.1195223464812094</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.888714597443215</v>
+        <v>-3.448541466955422</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.626432125769107</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.69621066650425</v>
+        <v>-17.24519710926351</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.06156272180088805</v>
+        <v>-0.1798124010673579</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.248608910259423</v>
+        <v>-3.834620385455082</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.809046621182316</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.03957930978033</v>
+        <v>-16.58111623222264</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.03177773283596125</v>
+        <v>-0.1259506671764969</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.13769092058432</v>
+        <v>-3.680091935014189</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.036471085499374</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.43577539502276</v>
+        <v>-15.92168312269058</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06759284573273962</v>
+        <v>-0.03947600690689618</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.403988360385028</v>
+        <v>-3.99108649671655</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.293563597901517</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.73372683974088</v>
+        <v>-15.19017688601482</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1636510716824838</v>
+        <v>0.02124609367302933</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.358387869587296</v>
+        <v>-3.953249741503962</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.587022638619999</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.91873098784344</v>
+        <v>-14.37114860484212</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1881336779965115</v>
+        <v>0.05562648093540198</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.498318402359665</v>
+        <v>-4.140901718134422</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.906863002847829</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.33016651359364</v>
+        <v>-13.7929008652316</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2563969450132713</v>
+        <v>0.1204464723047877</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.451906188785745</v>
+        <v>-4.023005531044678</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.25287309125221</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.67738429390518</v>
+        <v>-13.10991470288728</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3195280293160743</v>
+        <v>0.1978874436135974</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.49699607977265</v>
+        <v>-4.084984492697409</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.620925967162394</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.2971052655644</v>
+        <v>-12.72130896993917</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2011997962325541</v>
+        <v>0.04808531449856777</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.665886786430916</v>
+        <v>-4.299763720815926</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.002261143004743</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.75418055902086</v>
+        <v>-12.10556487498995</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01378348105324547</v>
+        <v>-0.09027414193279332</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.107909114973272</v>
+        <v>-4.701003526006304</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.398075043827186</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.32756787092322</v>
+        <v>-11.67533871130799</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02936332143489949</v>
+        <v>-0.1169955320327562</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.210238553984203</v>
+        <v>-4.830159093539932</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.791460831336197</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.55808086370361</v>
+        <v>-10.89642524604234</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.02372596658829972</v>
+        <v>-0.158681424280812</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.608833714000553</v>
+        <v>-5.265805470598367</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.18792971670091</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.29334140794107</v>
+        <v>-10.64111224832584</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1930749038460264</v>
+        <v>-0.3211699948494743</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.632884274320804</v>
+        <v>-5.264024917411892</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.56432102170741</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.697955843910735</v>
+        <v>-10.01736875634032</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1341726333611008</v>
+        <v>-0.2746530428528215</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.931716086683202</v>
+        <v>-5.579758892742958</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.92861337560078</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.35317004857388</v>
+        <v>-9.711414731232029</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2433100698497293</v>
+        <v>-0.3735522985192203</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.821766927418386</v>
+        <v>-5.446138849940302</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.25933895570282</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.800596314835989</v>
+        <v>-9.136662636480255</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2688400603910951</v>
+        <v>-0.398846627609435</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.198314649449269</v>
+        <v>-5.815852389887804</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.56336662413423</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.321732246097016</v>
+        <v>-8.660233736069843</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2254652610764567</v>
+        <v>-0.3474593389556602</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.215544119988981</v>
+        <v>-5.851136146046256</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.82814113600793</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.874708657869121</v>
+        <v>-8.210526225759395</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2433100698497293</v>
+        <v>-0.3596482729013072</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.197895695758334</v>
+        <v>-5.832767645159315</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.05605935514284</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.515717713948992</v>
+        <v>-7.865138184491819</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3993965043287875</v>
+        <v>-0.5070283259906175</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.387197302546851</v>
+        <v>-6.002064213205674</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.24549815733512</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.165210582270301</v>
+        <v>-7.511803115399315</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3323508214763083</v>
+        <v>-0.4250836025042541</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.647707944491517</v>
+        <v>-6.235172665302607</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.39373610749399</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.915920043860996</v>
+        <v>-7.255652210300945</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4498542394807998</v>
+        <v>-0.5495783102262273</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.610159219941446</v>
+        <v>-6.176204933303473</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.50958123324403</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.748809890389204</v>
+        <v>-7.088908641308722</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5412516056188895</v>
+        <v>-0.6473909047567628</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.703559708414319</v>
+        <v>-6.260728840449656</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.58409932398519</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.472261177463424</v>
+        <v>-6.804046316078447</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4873898717280284</v>
+        <v>-0.601685675536297</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.677532210364968</v>
+        <v>-6.210768612805629</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-12.63496178156931</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.350607499458105</v>
+        <v>-6.703602168676724</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7775022103978364</v>
+        <v>-0.9047855786250972</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.716678195861729</v>
+        <v>-6.224986853691744</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.64794852720324</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.157129448063078</v>
+        <v>-6.518765037157236</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6930568570687032</v>
+        <v>-0.7964205880041305</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.555590501697132</v>
+        <v>-6.047507596369305</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.64355847680597</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.064959636057326</v>
+        <v>-6.449768601181339</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7622496775872255</v>
+        <v>-0.870431375968408</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.473488670576668</v>
+        <v>-5.943724911742943</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.60613624660231</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.068690942367218</v>
+        <v>-6.469367778535402</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8875168311768605</v>
+        <v>-1.008018386532107</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.304794348461027</v>
+        <v>-5.733423251196297</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.55120998713881</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.124032106479194</v>
+        <v>-6.526869172616264</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9379352894203477</v>
+        <v>-1.069382009951277</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.126228430002725</v>
+        <v>-5.569939665611663</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.46876249216778</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.342189148730876</v>
+        <v>-6.744777461113952</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.8178919646645613</v>
+        <v>-0.9472701013464983</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.986441912561617</v>
+        <v>-5.412347616305807</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.36641769942672</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.520938359428961</v>
+        <v>-6.911822153071535</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.154272501577029</v>
+        <v>-1.30112886255267</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.81793088268576</v>
+        <v>-5.244334093937936</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.24463856328346</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.997458905959266</v>
+        <v>-7.375630073542523</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.085210604086924</v>
+        <v>-1.240249654338644</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.606647299425985</v>
+        <v>-4.995135201648522</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.10479365810118</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.439821634375506</v>
+        <v>-7.789530135580851</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.147817996276058</v>
+        <v>-1.313579642555152</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.535608464206779</v>
+        <v>-4.941836436779855</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.95898576441492</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.039422919920876</v>
+        <v>-8.389524190211473</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.207623635657063</v>
+        <v>-1.355344088620258</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.164926093848988</v>
+        <v>-4.593816842641093</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.80212830436283</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.451738813315355</v>
+        <v>-8.798933592375089</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.209089973575336</v>
+        <v>-1.387629707427955</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.017362748519894</v>
+        <v>-4.460380092078221</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.6570292696387</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.905360922175481</v>
+        <v>-9.239267013850862</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.34291949322346</v>
+        <v>-1.487838193378526</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.659929788637931</v>
+        <v>-4.110213360273415</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.51275201414624</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.803100128032638</v>
+        <v>-10.11715828859996</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.31394622703472</v>
+        <v>-1.484826963724929</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.659327542707211</v>
+        <v>-4.125505169992552</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.39720704857652</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.56865944439973</v>
+        <v>-10.85106041669576</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.395956412035292</v>
+        <v>-1.572859608032695</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.461358831437472</v>
+        <v>-3.914300140549827</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.29791206532433</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.36840276348656</v>
+        <v>-11.62900505155112</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.527756624742949</v>
+        <v>-1.710276418659452</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.123014449098745</v>
+        <v>-3.595096704965703</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.23950713322371</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.55343946290256</v>
+        <v>-12.82679365393496</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.596307922422226</v>
+        <v>-1.775895040502183</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.980216702004039</v>
+        <v>-3.448476005441213</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.21574077058322</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.44080956490907</v>
+        <v>-13.693936148051</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.666482665653878</v>
+        <v>-1.82965203597031</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.650683439477794</v>
+        <v>-3.113928390926587</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.24117445615516</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.57698579011974</v>
+        <v>-14.79261601792297</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.85612467231628</v>
+        <v>-2.014973582694942</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.394048119174279</v>
+        <v>-2.865253190750842</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.31842556283146</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.64182205714584</v>
+        <v>-15.83835061510299</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.889614782985416</v>
+        <v>-2.044680017842819</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.970080076250664</v>
+        <v>-2.42795718353435</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.45143427007038</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.04001453912798</v>
+        <v>-17.22660603922826</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.852563565943331</v>
+        <v>-1.969399276502894</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.683672859285064</v>
+        <v>-2.169672233072778</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.65281846859678</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.67739030172561</v>
+        <v>-18.83699856566909</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.072304776838861</v>
+        <v>-2.196079407904539</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.504125018113633</v>
+        <v>-1.98825219259498</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.91519800738413</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.26106143806648</v>
+        <v>-20.40812727588759</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.293381402624247</v>
+        <v>-2.397687779364279</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.220519553956163</v>
+        <v>-1.710158587933876</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.25762573552826</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99220427361655</v>
+        <v>-22.06871569142359</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.46770541496183</v>
+        <v>-2.539215573083338</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.362440116760474</v>
+        <v>-1.84716953717254</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.65748851884945</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.65538496511522</v>
+        <v>-23.6998071486572</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.569471884950567</v>
+        <v>-2.658067498280527</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.16102812984336</v>
+        <v>-1.645718273346901</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-13.1291944498324</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75901690881524</v>
+        <v>-25.79994344749847</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.698679821695561</v>
+        <v>-2.750564617857322</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.136126569838397</v>
+        <v>-1.616404607284276</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-13.63414761129055</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.9817364391636</v>
+        <v>-28.00519784585597</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.552687552707474</v>
+        <v>-2.591296753787724</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.242737191878572</v>
+        <v>-1.695573762568193</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-14.17097719863995</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.25132641368534</v>
+        <v>-30.25585635046858</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.004686216015225</v>
+        <v>-3.021221794504325</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.592903923683378</v>
+        <v>-2.061398888571703</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-14.69588075126154</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.47472674378147</v>
+        <v>-32.48925919993578</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.035426943087598</v>
+        <v>-3.010224260117275</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.845218784049122</v>
+        <v>-2.326727497962124</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-15.19072236580668</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.70746188580375</v>
+        <v>-34.73653989041522</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.333381571159599</v>
+        <v>-3.26807716458507</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.035044082951309</v>
+        <v>-2.493588897679922</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-15.61838903450438</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.21592092567278</v>
+        <v>-37.23329441154375</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.581467617707466</v>
+        <v>-3.519894517442829</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.470598813889851</v>
+        <v>-2.956925495248608</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-15.95847097257038</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.69578637613548</v>
+        <v>-39.66278068067149</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.51087392078488</v>
+        <v>-3.459539001342472</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.944055761555191</v>
+        <v>-3.442636838373804</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-16.19098363756484</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.26365828630026</v>
+        <v>-42.23261643626253</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.689060162460772</v>
+        <v>-3.637515766172896</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.246985464707049</v>
+        <v>-3.71589938328631</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-16.30776684506368</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.55720717502236</v>
+        <v>-44.53248890725718</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.901194745405259</v>
+        <v>-3.835864154225046</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.790564786392674</v>
+        <v>-4.21271299922129</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-16.30047556082495</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.87353667068906</v>
+        <v>-46.85245806311389</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.034369649911296</v>
+        <v>-3.956797755574069</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.092263813077409</v>
+        <v>-4.519282362563147</v>
       </c>
     </row>
   </sheetData>
